--- a/data/ai.xlsx
+++ b/data/ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE3D2E-0A7A-014A-804F-BEF763C31597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638668FA-D310-054E-A2BF-838355D4DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23220" yWindow="-26540" windowWidth="25420" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="4280" yWindow="-19040" windowWidth="25420" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -591,6 +591,26 @@
   </si>
   <si>
     <t>https://beta.dreamstudio.ai/generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Inventation of 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7319002340593025573/?app=news_article&amp;timestamp=1704227525&amp;use_new_style=1&amp;req_id=202401030432042F2607EE65D31457656F&amp;group_id=7319002340593025573&amp;source=m_redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai-501.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,11 +998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1017,19 +1037,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -1037,16 +1057,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1057,16 +1077,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1077,16 +1097,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1097,16 +1117,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1117,16 +1137,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1137,16 +1157,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1157,16 +1177,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -1175,18 +1195,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -1195,21 +1215,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -1217,16 +1237,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1237,16 +1257,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -1257,16 +1277,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -1277,16 +1297,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1297,16 +1317,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -1317,16 +1337,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -1337,16 +1357,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1357,16 +1377,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -1377,19 +1397,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -1397,16 +1417,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>36</v>
@@ -1417,16 +1437,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -1437,16 +1457,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>36</v>
@@ -1457,16 +1477,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>36</v>
@@ -1477,16 +1497,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>
@@ -1497,16 +1517,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>36</v>
@@ -1517,16 +1537,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
@@ -1537,16 +1557,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>36</v>
@@ -1557,19 +1577,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -1577,16 +1597,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>64</v>
@@ -1597,16 +1617,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1617,16 +1637,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>64</v>
@@ -1637,16 +1657,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
@@ -1657,16 +1677,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>64</v>
@@ -1677,16 +1697,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>64</v>
@@ -1697,16 +1717,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>64</v>
@@ -1717,61 +1737,82 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B801E673-D11D-D246-96CD-205A54593A8B}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{A864F390-35E0-3147-B1A5-A9E19400DBE0}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{59CC754E-6D66-8B44-BCB3-2BC10716D3B6}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{4D746AB0-EA42-944F-93BB-D9935C3F1A1D}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{66089C02-CA2A-6A4F-8057-8A7D4BDD3C83}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{0AA1D5CB-4298-8340-8EE7-8B8FB946BA0A}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{7EE9F212-9118-8A4B-B310-A65D93882C73}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{A96A7E9A-FDB6-4747-A9BF-4E27081C76F3}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{B312A92D-422F-5E48-9A5F-D3068A9A31C6}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{6145568E-A551-D840-ADE7-02773642C578}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{E4D20F18-B620-CA40-A6B7-21D54CFD2A16}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{3705A09C-F4DC-774B-A83C-114C75707689}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{15FFB4A4-FF55-9340-A0D7-2F8DBA7FB8A5}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{BFF92A4F-A529-A548-A127-07E440829F58}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{DF4C78A1-589A-EE4C-BBF6-0B5AD8DCEEEC}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{7FD0FC0F-257A-A14C-8F31-2B2F5406595E}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{174CEB81-E347-4747-B55F-A3796FAA6ABC}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{427F578D-2DC8-6C41-83BE-DFB993BDCB62}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{292735BD-1177-4B41-92D3-E8630898E837}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{E7197767-C66F-9446-A0A4-676C98DF67A8}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{2BBB8EDF-76B2-C24E-9979-37286CC84C4B}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{F12A28EB-7AEF-8B4D-8610-C5FB084EAFF7}"/>
-    <hyperlink ref="D26" r:id="rId23" xr:uid="{9821A049-7F93-A440-9BE0-13C7E80CBAFC}"/>
-    <hyperlink ref="D27" r:id="rId24" xr:uid="{B3EF59C1-D6F5-2D4A-A46C-10CA57D9C692}"/>
-    <hyperlink ref="D28" r:id="rId25" xr:uid="{D5A47C3F-4943-CF49-B772-1D4409F20024}"/>
-    <hyperlink ref="D29" r:id="rId26" xr:uid="{F5BF7E91-03E5-C34B-933B-26BD5DD40083}"/>
-    <hyperlink ref="D30" r:id="rId27" xr:uid="{61950CC4-B33C-5741-8A22-3F1E3BEF6E24}"/>
-    <hyperlink ref="D32" r:id="rId28" xr:uid="{51B61186-728F-0A40-8AC8-3AC7E96521EE}"/>
-    <hyperlink ref="D33" r:id="rId29" xr:uid="{71555769-3970-7744-81CA-72689D26B79B}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{98FAFA7B-922C-1E46-955E-E983A6AE5ACA}"/>
-    <hyperlink ref="D34" r:id="rId31" xr:uid="{238A5E4D-9EE7-6145-A4FE-A0007769EDB3}"/>
-    <hyperlink ref="D35" r:id="rId32" xr:uid="{4171C048-CA0F-D748-9D9D-7CF552CBCF2D}"/>
-    <hyperlink ref="D36" r:id="rId33" xr:uid="{FB6AF19C-97A3-8244-A125-9C34FE9BE548}"/>
-    <hyperlink ref="D37" r:id="rId34" xr:uid="{99E26B1C-F765-164D-8DE6-83642836ECD1}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{B801E673-D11D-D246-96CD-205A54593A8B}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{A864F390-35E0-3147-B1A5-A9E19400DBE0}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{59CC754E-6D66-8B44-BCB3-2BC10716D3B6}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{4D746AB0-EA42-944F-93BB-D9935C3F1A1D}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{66089C02-CA2A-6A4F-8057-8A7D4BDD3C83}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{0AA1D5CB-4298-8340-8EE7-8B8FB946BA0A}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{7EE9F212-9118-8A4B-B310-A65D93882C73}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{A96A7E9A-FDB6-4747-A9BF-4E27081C76F3}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{B312A92D-422F-5E48-9A5F-D3068A9A31C6}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{6145568E-A551-D840-ADE7-02773642C578}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{E4D20F18-B620-CA40-A6B7-21D54CFD2A16}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{3705A09C-F4DC-774B-A83C-114C75707689}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{15FFB4A4-FF55-9340-A0D7-2F8DBA7FB8A5}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{BFF92A4F-A529-A548-A127-07E440829F58}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{DF4C78A1-589A-EE4C-BBF6-0B5AD8DCEEEC}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{7FD0FC0F-257A-A14C-8F31-2B2F5406595E}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{174CEB81-E347-4747-B55F-A3796FAA6ABC}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{427F578D-2DC8-6C41-83BE-DFB993BDCB62}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{292735BD-1177-4B41-92D3-E8630898E837}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{E7197767-C66F-9446-A0A4-676C98DF67A8}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{2BBB8EDF-76B2-C24E-9979-37286CC84C4B}"/>
+    <hyperlink ref="D26" r:id="rId22" xr:uid="{F12A28EB-7AEF-8B4D-8610-C5FB084EAFF7}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{9821A049-7F93-A440-9BE0-13C7E80CBAFC}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{B3EF59C1-D6F5-2D4A-A46C-10CA57D9C692}"/>
+    <hyperlink ref="D29" r:id="rId25" xr:uid="{D5A47C3F-4943-CF49-B772-1D4409F20024}"/>
+    <hyperlink ref="D30" r:id="rId26" xr:uid="{F5BF7E91-03E5-C34B-933B-26BD5DD40083}"/>
+    <hyperlink ref="D31" r:id="rId27" xr:uid="{61950CC4-B33C-5741-8A22-3F1E3BEF6E24}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{51B61186-728F-0A40-8AC8-3AC7E96521EE}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{71555769-3970-7744-81CA-72689D26B79B}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{98FAFA7B-922C-1E46-955E-E983A6AE5ACA}"/>
+    <hyperlink ref="D35" r:id="rId31" xr:uid="{238A5E4D-9EE7-6145-A4FE-A0007769EDB3}"/>
+    <hyperlink ref="D36" r:id="rId32" xr:uid="{4171C048-CA0F-D748-9D9D-7CF552CBCF2D}"/>
+    <hyperlink ref="D37" r:id="rId33" xr:uid="{FB6AF19C-97A3-8244-A125-9C34FE9BE548}"/>
+    <hyperlink ref="D38" r:id="rId34" xr:uid="{99E26B1C-F765-164D-8DE6-83642836ECD1}"/>
+    <hyperlink ref="D2" r:id="rId35" xr:uid="{4F9C89F3-2658-5042-9D80-F59A14D9F410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ai.xlsx
+++ b/data/ai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638668FA-D310-054E-A2BF-838355D4DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC144E-4FEC-DB4E-AA56-D2B1E2667145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4280" yWindow="-19040" windowWidth="25420" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -611,6 +611,22 @@
   </si>
   <si>
     <t>ai-501.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC应用层十大趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7325443607220224548/?app=news_article&amp;timestamp=1705670269&amp;use_new_style=1&amp;req_id=202401192117486CE919652F7D5B253D26&amp;group_id=7325443607220224548&amp;source=m_redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai-502.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1037,16 +1053,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>158</v>
@@ -1057,19 +1073,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -1077,16 +1093,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1097,16 +1113,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1117,16 +1133,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1137,16 +1153,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1157,16 +1173,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>124</v>
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1177,16 +1193,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -1197,16 +1213,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -1215,18 +1231,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1235,21 +1251,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -1257,16 +1273,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -1277,16 +1293,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -1297,16 +1313,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1317,16 +1333,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -1337,16 +1353,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -1357,16 +1373,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1377,16 +1393,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -1397,16 +1413,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -1417,19 +1433,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1437,16 +1453,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -1457,16 +1473,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>36</v>
@@ -1477,16 +1493,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>36</v>
@@ -1497,16 +1513,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>
@@ -1517,16 +1533,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>36</v>
@@ -1537,16 +1553,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
@@ -1557,16 +1573,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>36</v>
@@ -1577,16 +1593,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>36</v>
@@ -1597,19 +1613,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -1617,16 +1633,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1637,16 +1653,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>64</v>
@@ -1657,16 +1673,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
@@ -1677,16 +1693,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>64</v>
@@ -1697,16 +1713,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>64</v>
@@ -1717,16 +1733,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>64</v>
@@ -1737,16 +1753,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>64</v>
@@ -1757,62 +1773,83 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{B801E673-D11D-D246-96CD-205A54593A8B}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{A864F390-35E0-3147-B1A5-A9E19400DBE0}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{59CC754E-6D66-8B44-BCB3-2BC10716D3B6}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{4D746AB0-EA42-944F-93BB-D9935C3F1A1D}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{66089C02-CA2A-6A4F-8057-8A7D4BDD3C83}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{0AA1D5CB-4298-8340-8EE7-8B8FB946BA0A}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{7EE9F212-9118-8A4B-B310-A65D93882C73}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{A96A7E9A-FDB6-4747-A9BF-4E27081C76F3}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{B312A92D-422F-5E48-9A5F-D3068A9A31C6}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{6145568E-A551-D840-ADE7-02773642C578}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{E4D20F18-B620-CA40-A6B7-21D54CFD2A16}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{3705A09C-F4DC-774B-A83C-114C75707689}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{15FFB4A4-FF55-9340-A0D7-2F8DBA7FB8A5}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{BFF92A4F-A529-A548-A127-07E440829F58}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{DF4C78A1-589A-EE4C-BBF6-0B5AD8DCEEEC}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{7FD0FC0F-257A-A14C-8F31-2B2F5406595E}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{174CEB81-E347-4747-B55F-A3796FAA6ABC}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{427F578D-2DC8-6C41-83BE-DFB993BDCB62}"/>
-    <hyperlink ref="D23" r:id="rId19" xr:uid="{292735BD-1177-4B41-92D3-E8630898E837}"/>
-    <hyperlink ref="D24" r:id="rId20" xr:uid="{E7197767-C66F-9446-A0A4-676C98DF67A8}"/>
-    <hyperlink ref="D25" r:id="rId21" xr:uid="{2BBB8EDF-76B2-C24E-9979-37286CC84C4B}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{F12A28EB-7AEF-8B4D-8610-C5FB084EAFF7}"/>
-    <hyperlink ref="D27" r:id="rId23" xr:uid="{9821A049-7F93-A440-9BE0-13C7E80CBAFC}"/>
-    <hyperlink ref="D28" r:id="rId24" xr:uid="{B3EF59C1-D6F5-2D4A-A46C-10CA57D9C692}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{D5A47C3F-4943-CF49-B772-1D4409F20024}"/>
-    <hyperlink ref="D30" r:id="rId26" xr:uid="{F5BF7E91-03E5-C34B-933B-26BD5DD40083}"/>
-    <hyperlink ref="D31" r:id="rId27" xr:uid="{61950CC4-B33C-5741-8A22-3F1E3BEF6E24}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{51B61186-728F-0A40-8AC8-3AC7E96521EE}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{71555769-3970-7744-81CA-72689D26B79B}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{98FAFA7B-922C-1E46-955E-E983A6AE5ACA}"/>
-    <hyperlink ref="D35" r:id="rId31" xr:uid="{238A5E4D-9EE7-6145-A4FE-A0007769EDB3}"/>
-    <hyperlink ref="D36" r:id="rId32" xr:uid="{4171C048-CA0F-D748-9D9D-7CF552CBCF2D}"/>
-    <hyperlink ref="D37" r:id="rId33" xr:uid="{FB6AF19C-97A3-8244-A125-9C34FE9BE548}"/>
-    <hyperlink ref="D38" r:id="rId34" xr:uid="{99E26B1C-F765-164D-8DE6-83642836ECD1}"/>
-    <hyperlink ref="D2" r:id="rId35" xr:uid="{4F9C89F3-2658-5042-9D80-F59A14D9F410}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{B801E673-D11D-D246-96CD-205A54593A8B}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A864F390-35E0-3147-B1A5-A9E19400DBE0}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{59CC754E-6D66-8B44-BCB3-2BC10716D3B6}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{4D746AB0-EA42-944F-93BB-D9935C3F1A1D}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{66089C02-CA2A-6A4F-8057-8A7D4BDD3C83}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{0AA1D5CB-4298-8340-8EE7-8B8FB946BA0A}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{7EE9F212-9118-8A4B-B310-A65D93882C73}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{A96A7E9A-FDB6-4747-A9BF-4E27081C76F3}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{B312A92D-422F-5E48-9A5F-D3068A9A31C6}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{6145568E-A551-D840-ADE7-02773642C578}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{E4D20F18-B620-CA40-A6B7-21D54CFD2A16}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{3705A09C-F4DC-774B-A83C-114C75707689}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{15FFB4A4-FF55-9340-A0D7-2F8DBA7FB8A5}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{BFF92A4F-A529-A548-A127-07E440829F58}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{DF4C78A1-589A-EE4C-BBF6-0B5AD8DCEEEC}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{7FD0FC0F-257A-A14C-8F31-2B2F5406595E}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{174CEB81-E347-4747-B55F-A3796FAA6ABC}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{427F578D-2DC8-6C41-83BE-DFB993BDCB62}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{292735BD-1177-4B41-92D3-E8630898E837}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{E7197767-C66F-9446-A0A4-676C98DF67A8}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{2BBB8EDF-76B2-C24E-9979-37286CC84C4B}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{F12A28EB-7AEF-8B4D-8610-C5FB084EAFF7}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{9821A049-7F93-A440-9BE0-13C7E80CBAFC}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{B3EF59C1-D6F5-2D4A-A46C-10CA57D9C692}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{D5A47C3F-4943-CF49-B772-1D4409F20024}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{F5BF7E91-03E5-C34B-933B-26BD5DD40083}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{61950CC4-B33C-5741-8A22-3F1E3BEF6E24}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{51B61186-728F-0A40-8AC8-3AC7E96521EE}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{71555769-3970-7744-81CA-72689D26B79B}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{98FAFA7B-922C-1E46-955E-E983A6AE5ACA}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{238A5E4D-9EE7-6145-A4FE-A0007769EDB3}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{4171C048-CA0F-D748-9D9D-7CF552CBCF2D}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{FB6AF19C-97A3-8244-A125-9C34FE9BE548}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{99E26B1C-F765-164D-8DE6-83642836ECD1}"/>
+    <hyperlink ref="D3" r:id="rId35" xr:uid="{4F9C89F3-2658-5042-9D80-F59A14D9F410}"/>
+    <hyperlink ref="D2" r:id="rId36" xr:uid="{EC53E4FE-50EA-3645-82F2-F9F6E6DC8DBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
